--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tnfsf13-Tnfrsf14.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tnfsf13-Tnfrsf14.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5253763333333333</v>
+        <v>1.342908333333333</v>
       </c>
       <c r="H2">
-        <v>1.576129</v>
+        <v>4.028725</v>
       </c>
       <c r="I2">
-        <v>0.08315346361753381</v>
+        <v>0.2879023314891748</v>
       </c>
       <c r="J2">
-        <v>0.08315346361753381</v>
+        <v>0.2879023314891748</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.593702666666666</v>
+        <v>4.901461666666667</v>
       </c>
       <c r="N2">
-        <v>16.781108</v>
+        <v>14.704385</v>
       </c>
       <c r="O2">
-        <v>0.1866080739693142</v>
+        <v>0.2124427850531459</v>
       </c>
       <c r="P2">
-        <v>0.1866080739693142</v>
+        <v>0.2124427850531459</v>
       </c>
       <c r="Q2">
-        <v>2.938798996770222</v>
+        <v>6.582213717680555</v>
       </c>
       <c r="R2">
-        <v>26.449190970932</v>
+        <v>59.239923459125</v>
       </c>
       <c r="S2">
-        <v>0.01551710768954543</v>
+        <v>0.0611627731248543</v>
       </c>
       <c r="T2">
-        <v>0.01551710768954543</v>
+        <v>0.06116277312485431</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5253763333333333</v>
+        <v>1.342908333333333</v>
       </c>
       <c r="H3">
-        <v>1.576129</v>
+        <v>4.028725</v>
       </c>
       <c r="I3">
-        <v>0.08315346361753381</v>
+        <v>0.2879023314891748</v>
       </c>
       <c r="J3">
-        <v>0.08315346361753381</v>
+        <v>0.2879023314891748</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>9.497398</v>
       </c>
       <c r="O3">
-        <v>0.105612284272291</v>
+        <v>0.1372144215401173</v>
       </c>
       <c r="P3">
-        <v>0.105612284272291</v>
+        <v>0.1372144215401173</v>
       </c>
       <c r="Q3">
-        <v>1.663236045815778</v>
+        <v>4.251378306394444</v>
       </c>
       <c r="R3">
-        <v>14.969124412342</v>
+        <v>38.26240475755</v>
       </c>
       <c r="S3">
-        <v>0.008782027237800591</v>
+        <v>0.03950435187533821</v>
       </c>
       <c r="T3">
-        <v>0.00878202723780059</v>
+        <v>0.03950435187533821</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5253763333333333</v>
+        <v>1.342908333333333</v>
       </c>
       <c r="H4">
-        <v>1.576129</v>
+        <v>4.028725</v>
       </c>
       <c r="I4">
-        <v>0.08315346361753381</v>
+        <v>0.2879023314891748</v>
       </c>
       <c r="J4">
-        <v>0.08315346361753381</v>
+        <v>0.2879023314891748</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.014792333333334</v>
+        <v>1.206743666666667</v>
       </c>
       <c r="N4">
-        <v>3.044377</v>
+        <v>3.620231</v>
       </c>
       <c r="O4">
-        <v>0.03385386283232782</v>
+        <v>0.05230357857032003</v>
       </c>
       <c r="P4">
-        <v>0.03385386283232782</v>
+        <v>0.05230357857032004</v>
       </c>
       <c r="Q4">
-        <v>0.5331478751814446</v>
+        <v>1.620546126163889</v>
       </c>
       <c r="R4">
-        <v>4.798330876633001</v>
+        <v>14.584915135475</v>
       </c>
       <c r="S4">
-        <v>0.002815065951340952</v>
+        <v>0.01505832221562237</v>
       </c>
       <c r="T4">
-        <v>0.002815065951340951</v>
+        <v>0.01505832221562238</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5253763333333333</v>
+        <v>1.342908333333333</v>
       </c>
       <c r="H5">
-        <v>1.576129</v>
+        <v>4.028725</v>
       </c>
       <c r="I5">
-        <v>0.08315346361753381</v>
+        <v>0.2879023314891748</v>
       </c>
       <c r="J5">
-        <v>0.08315346361753381</v>
+        <v>0.2879023314891748</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.201379</v>
+        <v>13.79790933333333</v>
       </c>
       <c r="N5">
-        <v>60.60413699999999</v>
+        <v>41.393728</v>
       </c>
       <c r="O5">
-        <v>0.673925778926067</v>
+        <v>0.5980392148364168</v>
       </c>
       <c r="P5">
-        <v>0.6739257789260669</v>
+        <v>0.5980392148364169</v>
       </c>
       <c r="Q5">
-        <v>10.613326427297</v>
+        <v>18.52932742631111</v>
       </c>
       <c r="R5">
-        <v>95.519937845673</v>
+        <v>166.7639468368</v>
       </c>
       <c r="S5">
-        <v>0.05603926273884684</v>
+        <v>0.1721768842733599</v>
       </c>
       <c r="T5">
-        <v>0.05603926273884684</v>
+        <v>0.1721768842733599</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.4963216666666667</v>
+        <v>0.4963216666666666</v>
       </c>
       <c r="H6">
         <v>1.488965</v>
       </c>
       <c r="I6">
-        <v>0.07855486254950023</v>
+        <v>0.1064050028249084</v>
       </c>
       <c r="J6">
-        <v>0.07855486254950023</v>
+        <v>0.1064050028249084</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.593702666666666</v>
+        <v>4.901461666666667</v>
       </c>
       <c r="N6">
-        <v>16.781108</v>
+        <v>14.704385</v>
       </c>
       <c r="O6">
-        <v>0.1866080739693142</v>
+        <v>0.2124427850531459</v>
       </c>
       <c r="P6">
-        <v>0.1866080739693142</v>
+        <v>0.2124427850531459</v>
       </c>
       <c r="Q6">
-        <v>2.776275830357778</v>
+        <v>2.432701623502778</v>
       </c>
       <c r="R6">
-        <v>24.98648247322</v>
+        <v>21.894314611525</v>
       </c>
       <c r="S6">
-        <v>0.01465897160128645</v>
+        <v>0.0226049751437114</v>
       </c>
       <c r="T6">
-        <v>0.01465897160128645</v>
+        <v>0.0226049751437114</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.4963216666666667</v>
+        <v>0.4963216666666666</v>
       </c>
       <c r="H7">
         <v>1.488965</v>
       </c>
       <c r="I7">
-        <v>0.07855486254950023</v>
+        <v>0.1064050028249084</v>
       </c>
       <c r="J7">
-        <v>0.07855486254950023</v>
+        <v>0.1064050028249084</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>9.497398</v>
       </c>
       <c r="O7">
-        <v>0.105612284272291</v>
+        <v>0.1372144215401173</v>
       </c>
       <c r="P7">
-        <v>0.105612284272291</v>
+        <v>0.1372144215401173</v>
       </c>
       <c r="Q7">
-        <v>1.571254801452223</v>
+        <v>1.571254801452222</v>
       </c>
       <c r="R7">
         <v>14.14129321307</v>
       </c>
       <c r="S7">
-        <v>0.008296358474548567</v>
+        <v>0.01460030091159435</v>
       </c>
       <c r="T7">
-        <v>0.008296358474548566</v>
+        <v>0.01460030091159435</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.4963216666666667</v>
+        <v>0.4963216666666666</v>
       </c>
       <c r="H8">
         <v>1.488965</v>
       </c>
       <c r="I8">
-        <v>0.07855486254950023</v>
+        <v>0.1064050028249084</v>
       </c>
       <c r="J8">
-        <v>0.07855486254950023</v>
+        <v>0.1064050028249084</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.014792333333334</v>
+        <v>1.206743666666667</v>
       </c>
       <c r="N8">
-        <v>3.044377</v>
+        <v>3.620231</v>
       </c>
       <c r="O8">
-        <v>0.03385386283232782</v>
+        <v>0.05230357857032003</v>
       </c>
       <c r="P8">
-        <v>0.03385386283232782</v>
+        <v>0.05230357857032004</v>
       </c>
       <c r="Q8">
-        <v>0.5036634222005557</v>
+        <v>0.5989330278794444</v>
       </c>
       <c r="R8">
-        <v>4.532970799805001</v>
+        <v>5.390397250914999</v>
       </c>
       <c r="S8">
-        <v>0.002659385541563147</v>
+        <v>0.005565362425527721</v>
       </c>
       <c r="T8">
-        <v>0.002659385541563146</v>
+        <v>0.005565362425527722</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.4963216666666667</v>
+        <v>0.4963216666666666</v>
       </c>
       <c r="H9">
         <v>1.488965</v>
       </c>
       <c r="I9">
-        <v>0.07855486254950023</v>
+        <v>0.1064050028249084</v>
       </c>
       <c r="J9">
-        <v>0.07855486254950023</v>
+        <v>0.1064050028249084</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20.201379</v>
+        <v>13.79790933333333</v>
       </c>
       <c r="N9">
-        <v>60.60413699999999</v>
+        <v>41.393728</v>
       </c>
       <c r="O9">
-        <v>0.673925778926067</v>
+        <v>0.5980392148364168</v>
       </c>
       <c r="P9">
-        <v>0.6739257789260669</v>
+        <v>0.5980392148364169</v>
       </c>
       <c r="Q9">
-        <v>10.026382094245</v>
+        <v>6.848201356835554</v>
       </c>
       <c r="R9">
-        <v>90.237438848205</v>
+        <v>61.63381221151999</v>
       </c>
       <c r="S9">
-        <v>0.05294014693210207</v>
+        <v>0.06363436434407493</v>
       </c>
       <c r="T9">
-        <v>0.05294014693210206</v>
+        <v>0.06363436434407493</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.2246166666666667</v>
+        <v>0.1501973333333333</v>
       </c>
       <c r="H10">
-        <v>0.6738499999999999</v>
+        <v>0.450592</v>
       </c>
       <c r="I10">
-        <v>0.03555099960642508</v>
+        <v>0.03220038283833477</v>
       </c>
       <c r="J10">
-        <v>0.03555099960642508</v>
+        <v>0.03220038283833477</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.593702666666666</v>
+        <v>4.901461666666667</v>
       </c>
       <c r="N10">
-        <v>16.781108</v>
+        <v>14.704385</v>
       </c>
       <c r="O10">
-        <v>0.1866080739693142</v>
+        <v>0.2124427850531459</v>
       </c>
       <c r="P10">
-        <v>0.1866080739693142</v>
+        <v>0.2124427850531459</v>
       </c>
       <c r="Q10">
-        <v>1.256438847311111</v>
+        <v>0.7361864717688889</v>
       </c>
       <c r="R10">
-        <v>11.3079496258</v>
+        <v>6.62567824592</v>
       </c>
       <c r="S10">
-        <v>0.006634103564238832</v>
+        <v>0.00684073900995336</v>
       </c>
       <c r="T10">
-        <v>0.006634103564238832</v>
+        <v>0.006840739009953361</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.2246166666666667</v>
+        <v>0.1501973333333333</v>
       </c>
       <c r="H11">
-        <v>0.6738499999999999</v>
+        <v>0.450592</v>
       </c>
       <c r="I11">
-        <v>0.03555099960642508</v>
+        <v>0.03220038283833477</v>
       </c>
       <c r="J11">
-        <v>0.03555099960642508</v>
+        <v>0.03220038283833477</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>9.497398</v>
       </c>
       <c r="O11">
-        <v>0.105612284272291</v>
+        <v>0.1372144215401173</v>
       </c>
       <c r="P11">
-        <v>0.105612284272291</v>
+        <v>0.1372144215401173</v>
       </c>
       <c r="Q11">
-        <v>0.7110912935888889</v>
+        <v>0.4754946177351111</v>
       </c>
       <c r="R11">
-        <v>6.3998216423</v>
+        <v>4.279451559616001</v>
       </c>
       <c r="S11">
-        <v>0.003754622276597872</v>
+        <v>0.004418356904532426</v>
       </c>
       <c r="T11">
-        <v>0.003754622276597871</v>
+        <v>0.004418356904532426</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.2246166666666667</v>
+        <v>0.1501973333333333</v>
       </c>
       <c r="H12">
-        <v>0.6738499999999999</v>
+        <v>0.450592</v>
       </c>
       <c r="I12">
-        <v>0.03555099960642508</v>
+        <v>0.03220038283833477</v>
       </c>
       <c r="J12">
-        <v>0.03555099960642508</v>
+        <v>0.03220038283833477</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.014792333333334</v>
+        <v>1.206743666666667</v>
       </c>
       <c r="N12">
-        <v>3.044377</v>
+        <v>3.620231</v>
       </c>
       <c r="O12">
-        <v>0.03385386283232782</v>
+        <v>0.05230357857032003</v>
       </c>
       <c r="P12">
-        <v>0.03385386283232782</v>
+        <v>0.05230357857032004</v>
       </c>
       <c r="Q12">
-        <v>0.2279392712722222</v>
+        <v>0.1812496807502222</v>
       </c>
       <c r="R12">
-        <v>2.05145344145</v>
+        <v>1.631247126752</v>
       </c>
       <c r="S12">
-        <v>0.001203538664228055</v>
+        <v>0.001684195253779227</v>
       </c>
       <c r="T12">
-        <v>0.001203538664228055</v>
+        <v>0.001684195253779228</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.2246166666666667</v>
+        <v>0.1501973333333333</v>
       </c>
       <c r="H13">
-        <v>0.6738499999999999</v>
+        <v>0.450592</v>
       </c>
       <c r="I13">
-        <v>0.03555099960642508</v>
+        <v>0.03220038283833477</v>
       </c>
       <c r="J13">
-        <v>0.03555099960642508</v>
+        <v>0.03220038283833477</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>20.201379</v>
+        <v>13.79790933333333</v>
       </c>
       <c r="N13">
-        <v>60.60413699999999</v>
+        <v>41.393728</v>
       </c>
       <c r="O13">
-        <v>0.673925778926067</v>
+        <v>0.5980392148364168</v>
       </c>
       <c r="P13">
-        <v>0.6739257789260669</v>
+        <v>0.5980392148364169</v>
       </c>
       <c r="Q13">
-        <v>4.53756641305</v>
+        <v>2.072409187441777</v>
       </c>
       <c r="R13">
-        <v>40.83809771744999</v>
+        <v>18.651682686976</v>
       </c>
       <c r="S13">
-        <v>0.02395873510136032</v>
+        <v>0.01925709167006975</v>
       </c>
       <c r="T13">
-        <v>0.02395873510136032</v>
+        <v>0.01925709167006976</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.071838666666667</v>
+        <v>2.675030666666667</v>
       </c>
       <c r="H14">
-        <v>15.215516</v>
+        <v>8.025092000000001</v>
       </c>
       <c r="I14">
-        <v>0.8027406742265409</v>
+        <v>0.573492282847582</v>
       </c>
       <c r="J14">
-        <v>0.8027406742265409</v>
+        <v>0.573492282847582</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.593702666666666</v>
+        <v>4.901461666666667</v>
       </c>
       <c r="N14">
-        <v>16.781108</v>
+        <v>14.704385</v>
       </c>
       <c r="O14">
-        <v>0.1866080739693142</v>
+        <v>0.2124427850531459</v>
       </c>
       <c r="P14">
-        <v>0.1866080739693142</v>
+        <v>0.2124427850531459</v>
       </c>
       <c r="Q14">
-        <v>28.37035747463645</v>
+        <v>13.11156026982445</v>
       </c>
       <c r="R14">
-        <v>255.333217271728</v>
+        <v>118.00404242842</v>
       </c>
       <c r="S14">
-        <v>0.1497978911142435</v>
+        <v>0.1218342977746268</v>
       </c>
       <c r="T14">
-        <v>0.1497978911142435</v>
+        <v>0.1218342977746268</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.071838666666667</v>
+        <v>2.675030666666667</v>
       </c>
       <c r="H15">
-        <v>15.215516</v>
+        <v>8.025092000000001</v>
       </c>
       <c r="I15">
-        <v>0.8027406742265409</v>
+        <v>0.573492282847582</v>
       </c>
       <c r="J15">
-        <v>0.8027406742265409</v>
+        <v>0.573492282847582</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>9.497398</v>
       </c>
       <c r="O15">
-        <v>0.105612284272291</v>
+        <v>0.1372144215401173</v>
       </c>
       <c r="P15">
-        <v>0.105612284272291</v>
+        <v>0.1372144215401173</v>
       </c>
       <c r="Q15">
-        <v>16.05642346970756</v>
+        <v>8.468610301179556</v>
       </c>
       <c r="R15">
-        <v>144.507811227368</v>
+        <v>76.21749271061601</v>
       </c>
       <c r="S15">
-        <v>0.08477927628334402</v>
+        <v>0.07869141184865229</v>
       </c>
       <c r="T15">
-        <v>0.084779276283344</v>
+        <v>0.07869141184865229</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.071838666666667</v>
+        <v>2.675030666666667</v>
       </c>
       <c r="H16">
-        <v>15.215516</v>
+        <v>8.025092000000001</v>
       </c>
       <c r="I16">
-        <v>0.8027406742265409</v>
+        <v>0.573492282847582</v>
       </c>
       <c r="J16">
-        <v>0.8027406742265409</v>
+        <v>0.573492282847582</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.014792333333334</v>
+        <v>1.206743666666667</v>
       </c>
       <c r="N16">
-        <v>3.044377</v>
+        <v>3.620231</v>
       </c>
       <c r="O16">
-        <v>0.03385386283232782</v>
+        <v>0.05230357857032003</v>
       </c>
       <c r="P16">
-        <v>0.03385386283232782</v>
+        <v>0.05230357857032004</v>
       </c>
       <c r="Q16">
-        <v>5.146862994836891</v>
+        <v>3.228076315139111</v>
       </c>
       <c r="R16">
-        <v>46.32176695353201</v>
+        <v>29.052686836252</v>
       </c>
       <c r="S16">
-        <v>0.02717587267519567</v>
+        <v>0.02999569867539071</v>
       </c>
       <c r="T16">
-        <v>0.02717587267519567</v>
+        <v>0.02999569867539071</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.071838666666667</v>
+        <v>2.675030666666667</v>
       </c>
       <c r="H17">
-        <v>15.215516</v>
+        <v>8.025092000000001</v>
       </c>
       <c r="I17">
-        <v>0.8027406742265409</v>
+        <v>0.573492282847582</v>
       </c>
       <c r="J17">
-        <v>0.8027406742265409</v>
+        <v>0.573492282847582</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>20.201379</v>
+        <v>13.79790933333333</v>
       </c>
       <c r="N17">
-        <v>60.60413699999999</v>
+        <v>41.393728</v>
       </c>
       <c r="O17">
-        <v>0.673925778926067</v>
+        <v>0.5980392148364168</v>
       </c>
       <c r="P17">
-        <v>0.6739257789260669</v>
+        <v>0.5980392148364169</v>
       </c>
       <c r="Q17">
-        <v>102.458135132188</v>
+        <v>36.90983060255289</v>
       </c>
       <c r="R17">
-        <v>922.123216189692</v>
+        <v>332.188475422976</v>
       </c>
       <c r="S17">
-        <v>0.5409876341537578</v>
+        <v>0.3429708745489122</v>
       </c>
       <c r="T17">
-        <v>0.5409876341537577</v>
+        <v>0.3429708745489122</v>
       </c>
     </row>
   </sheetData>
